--- a/eznlp/sequence_tagging/transition.xlsx
+++ b/eznlp/sequence_tagging/transition.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BIO1" sheetId="5" r:id="rId1"/>
     <sheet name="BIO2" sheetId="1" r:id="rId2"/>
     <sheet name="BIOES" sheetId="4" r:id="rId3"/>
+    <sheet name="OntoNotes" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="29">
   <si>
     <t>from_tag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +90,42 @@
   </si>
   <si>
     <t>start_of_chunk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -601,17 +638,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="10.625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="10.6328125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="15.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -628,7 +665,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -645,7 +682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -662,7 +699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
@@ -679,7 +716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -696,7 +733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -713,7 +750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
@@ -730,7 +767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -747,7 +784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -764,7 +801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
@@ -781,7 +818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -797,17 +834,17 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="10.625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="15.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.625" style="1" customWidth="1"/>
-    <col min="7" max="10" width="15.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="10.6328125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="15.6328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6328125" style="1" customWidth="1"/>
+    <col min="7" max="10" width="15.6328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6328125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -845,7 +882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -883,7 +920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -921,7 +958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
@@ -959,7 +996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -997,7 +1034,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -1035,7 +1072,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
@@ -1073,7 +1110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1111,7 +1148,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -1149,7 +1186,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
@@ -1187,7 +1224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:12" ht="14.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1203,17 +1240,17 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="10.625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="15.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.625" style="1" customWidth="1"/>
-    <col min="7" max="10" width="15.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="10.6328125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="15.6328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6328125" style="1" customWidth="1"/>
+    <col min="7" max="10" width="15.6328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6328125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1251,7 +1288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1289,7 +1326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
@@ -1327,7 +1364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -1365,7 +1402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -1403,7 +1440,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
@@ -1441,7 +1478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1479,7 +1516,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
@@ -1517,7 +1554,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
@@ -1555,7 +1592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
@@ -1593,7 +1630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>17</v>
       </c>
@@ -1631,7 +1668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1669,7 +1706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
@@ -1707,7 +1744,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -1745,7 +1782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -1783,7 +1820,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>17</v>
       </c>
@@ -1821,7 +1858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -1859,7 +1896,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
@@ -1897,7 +1934,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>15</v>
       </c>
@@ -1935,7 +1972,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>16</v>
       </c>
@@ -1973,7 +2010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>17</v>
       </c>
@@ -2011,7 +2048,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -2049,7 +2086,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>14</v>
       </c>
@@ -2087,7 +2124,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>15</v>
       </c>
@@ -2125,7 +2162,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>16</v>
       </c>
@@ -2163,7 +2200,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>17</v>
       </c>
@@ -2201,10 +2238,321 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:12" ht="14.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="10.6328125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="15.6328125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
 </file>